--- a/3. Excel HUB/Navegação e Localização/ir para especial.xlsx
+++ b/3. Excel HUB/Navegação e Localização/ir para especial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\3. Excel HUB\Navegação e Localização\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB005E6-B230-43BB-B6C4-6C2CF5CEEE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC12CE5E-E887-4C1F-9567-F40F0FCBA734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{44CB1225-FF6C-48D4-A4F8-494DE715413F}"/>
   </bookViews>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Alexandre:</t>
         </r>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Exploramos um pouco a função Ir para especial
@@ -64,14 +64,75 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{DE0CA791-0FF2-4DD1-9463-FB83924291DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexandre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+O Ir para serve para navegarmos para uma determinada célula, intervalo ou objeto do excel
+para ir para intervalo, é preciso NOMEAR esse intervalo antes... Coisa que não sabemos
+para ir para uma célula, basta colocar o ENDEREÇO dela (Coluna x Linha)=A1 no campo Referências
+As células visitadas ficam salvas no histórico da janela Ir para</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{1FB26BBC-AF4C-4B28-B5D0-158C61BC230E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Alexandre:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+O ir para especial é usado para selecionar tipos específicos de células para poder manipular elas, como:
+-selecionar células que tem comentários
+- selecionar células que tem constantes
+- selecionar células que tem fórmulas 
+e assim por diante</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>notas</t>
+  </si>
+  <si>
+    <t>ir para</t>
+  </si>
+  <si>
+    <t>ir para especial</t>
   </si>
 </sst>
 </file>
@@ -90,14 +151,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,26 +497,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19542BC4-789D-4F0D-84A4-385F09ABC582}">
-  <dimension ref="C4:C9"/>
+  <dimension ref="C4:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+      <selection activeCell="C4" sqref="C4:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>225.7</v>
       </c>
+      <c r="F4">
+        <v>225.7</v>
+      </c>
+      <c r="I4">
+        <v>225.7</v>
+      </c>
+      <c r="M4">
+        <v>225.7</v>
+      </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1578.7</v>
       </c>
+      <c r="F7">
+        <v>1578.7</v>
+      </c>
+      <c r="I7">
+        <v>1578.7</v>
+      </c>
+      <c r="M7">
+        <v>1578.7</v>
+      </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C9">
+        <v>356.78</v>
+      </c>
+      <c r="F9">
+        <v>356.78</v>
+      </c>
+      <c r="I9">
+        <v>356.78</v>
+      </c>
+      <c r="M9">
         <v>356.78</v>
       </c>
     </row>
@@ -466,28 +554,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E831C923-AC48-49F0-9731-D879AF73C496}">
-  <dimension ref="C4:D9"/>
+  <dimension ref="C4:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>225.7</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1578.7</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>356.78</v>
       </c>
